--- a/SH_OBD_Main/Configs/OBD_Result.xlsx
+++ b/SH_OBD_Main/Configs/OBD_Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\SH_OBD\SH_OBD\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB1004A-1B3F-4BFE-A9C3-BEC8A6DA1AE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D844F9-482C-437A-A2F1-1021EBE87290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9B031C48-3480-47E7-B6F7-2E04DE9B3595}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>（1）车辆信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>（2）OBD检查信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>与OBD诊断仪通讯情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,26 +81,6 @@
   </si>
   <si>
     <t>moduleID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3）OBD检查信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2）外观检验信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外观检验结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OBD型式检验要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总累积里程ODO（km）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,12 +225,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -341,7 +319,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -630,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC24CF6-F44C-472A-805F-B005B97B8B60}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -661,7 +639,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -699,7 +677,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -707,17 +685,17 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="11"/>
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
+      <c r="A8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -725,49 +703,13 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
